--- a/battleworld/Excel/MascotNpc_吉祥物npc.xlsx
+++ b/battleworld/Excel/MascotNpc_吉祥物npc.xlsx
@@ -1,114 +1,242 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\battleworld\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E846221-0C76-4341-9413-15782DCB8062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Appearance</t>
+  </si>
+  <si>
+    <t>InterTime</t>
+  </si>
+  <si>
+    <t>CreateNum</t>
+  </si>
+  <si>
+    <t>MaxNum</t>
+  </si>
+  <si>
+    <t>CreaEff</t>
+  </si>
+  <si>
+    <t>DisEff</t>
+  </si>
+  <si>
+    <t>WayRange</t>
+  </si>
+  <si>
+    <t>CheckRange</t>
+  </si>
+  <si>
+    <t>EscapeRange</t>
+  </si>
+  <si>
+    <t>EscapeTime</t>
+  </si>
+  <si>
+    <t>OutTime</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>DefaultSpeed</t>
+  </si>
+  <si>
+    <t>EscapeSpeed</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>DropHp</t>
+  </si>
+  <si>
+    <t>DropId</t>
+  </si>
+  <si>
+    <t>类型id</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>外观</t>
+  </si>
+  <si>
+    <t>生成间隔时间s</t>
+  </si>
+  <si>
+    <t>生成数量</t>
+  </si>
+  <si>
+    <t>生成上限</t>
+  </si>
+  <si>
+    <t>生成特效(特效表id）</t>
+  </si>
+  <si>
+    <t>消失特效(特效表id)</t>
+  </si>
+  <si>
+    <t>寻路范围</t>
+  </si>
+  <si>
+    <t>玩家出现检测范围</t>
+  </si>
+  <si>
+    <t>逃跑寻路范围</t>
+  </si>
+  <si>
+    <t>逃跑保持时间</t>
+  </si>
+  <si>
+    <t>脱离区域保持时间</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>默认移动速度</t>
+  </si>
+  <si>
+    <t>逃跑移动速度</t>
+  </si>
+  <si>
+    <t>抗暴</t>
+  </si>
+  <si>
+    <t>拾取物掉落血量</t>
+  </si>
+  <si>
+    <t>拾取物id(物品掉落表)</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Name_Npc_Masco_1</t>
+  </si>
+  <si>
+    <t>4428115846600B6C74DFB284369BAB00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="8">
@@ -170,39 +298,37 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0">
-      <alignment vertical="bottom" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="166" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -215,7 +341,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -510,212 +636,212 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="19"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="19" max="19" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>string</v>
-      </c>
-      <c r="D1" s="1" t="str">
-        <v>float</v>
-      </c>
-      <c r="E1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="F1" s="1" t="str">
-        <v>int</v>
-      </c>
-      <c r="G1" s="4" t="str">
-        <v>int[]</v>
-      </c>
-      <c r="H1" s="4" t="str">
-        <v>int[]</v>
-      </c>
-      <c r="I1" s="2" t="str">
-        <v>int</v>
-      </c>
-      <c r="J1" s="2" t="str">
-        <v>int</v>
-      </c>
-      <c r="K1" s="2" t="str">
-        <v>int</v>
-      </c>
-      <c r="L1" s="2" t="str">
-        <v>float</v>
-      </c>
-      <c r="M1" s="2" t="str">
-        <v>float</v>
-      </c>
-      <c r="N1" s="2" t="str">
-        <v>int</v>
-      </c>
-      <c r="O1" s="2" t="str">
-        <v>int</v>
-      </c>
-      <c r="P1" s="2" t="str">
-        <v>int</v>
-      </c>
-      <c r="Q1" s="2" t="str">
-        <v>int</v>
-      </c>
-      <c r="R1" s="2" t="str">
-        <v>int</v>
-      </c>
-      <c r="S1" s="2" t="str">
-        <v>int</v>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>Appearance</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>InterTime</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <v>CreateNum</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <v>MaxNum</v>
-      </c>
-      <c r="G2" s="4" t="str">
-        <v>CreaEff</v>
-      </c>
-      <c r="H2" s="4" t="str">
-        <v>DisEff</v>
-      </c>
-      <c r="I2" s="2" t="str">
-        <v>WayRange</v>
-      </c>
-      <c r="J2" s="2" t="str">
-        <v>CheckRange</v>
-      </c>
-      <c r="K2" s="2" t="str">
-        <v>EscapeRange</v>
-      </c>
-      <c r="L2" s="2" t="str">
-        <v>EscapeTime</v>
-      </c>
-      <c r="M2" s="2" t="str">
-        <v>OutTime</v>
-      </c>
-      <c r="N2" s="2" t="str">
-        <v>Hp</v>
-      </c>
-      <c r="O2" s="2" t="str">
-        <v>DefaultSpeed</v>
-      </c>
-      <c r="P2" s="2" t="str">
-        <v>EscapeSpeed</v>
-      </c>
-      <c r="Q2" s="2" t="str">
-        <v>Resistance</v>
-      </c>
-      <c r="R2" s="2" t="str">
-        <v>DropHp</v>
-      </c>
-      <c r="S2" s="2" t="str">
-        <v>DropId</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="str">
-        <v>类型id</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>名字</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>外观</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>生成间隔时间s</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <v>生成数量</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <v>生成上限</v>
-      </c>
-      <c r="G3" s="4" t="str">
-        <v>生成特效(特效表id）</v>
-      </c>
-      <c r="H3" s="4" t="str">
-        <v>消失特效(特效表id)</v>
-      </c>
-      <c r="I3" s="2" t="str">
-        <v>寻路范围</v>
-      </c>
-      <c r="J3" s="2" t="str">
-        <v>玩家出现检测范围</v>
-      </c>
-      <c r="K3" s="2" t="str">
-        <v>逃跑寻路范围</v>
-      </c>
-      <c r="L3" s="2" t="str">
-        <v>逃跑保持时间</v>
-      </c>
-      <c r="M3" s="2" t="str">
-        <v>脱离区域保持时间</v>
-      </c>
-      <c r="N3" s="3" t="str">
-        <v>生命值</v>
-      </c>
-      <c r="O3" s="3" t="str">
-        <v>默认移动速度</v>
-      </c>
-      <c r="P3" s="3" t="str">
-        <v>逃跑移动速度</v>
-      </c>
-      <c r="Q3" s="3" t="str">
-        <v>抗暴</v>
-      </c>
-      <c r="R3" s="2" t="str">
-        <v>拾取物掉落血量</v>
-      </c>
-      <c r="S3" s="2" t="str">
-        <v>拾取物id(物品掉落表)</v>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="5" t="str">
-        <v>Language</v>
+      <c r="B4" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="4"/>
@@ -737,15 +863,15 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:21" ht="36" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="str">
-        <v>Name_Npc_Masco_1</v>
-      </c>
-      <c r="C5" s="6" t="str">
-        <v>4428115846600B6C74DFB284369BAB00</v>
+      <c r="B5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="D5" s="6">
         <v>30</v>
@@ -778,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="6">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="O5" s="6">
         <v>200</v>
@@ -796,7 +922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -817,7 +943,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -839,7 +965,8 @@
       <c r="S7" s="7"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>